--- a/Level1_BenjaminLiu/VBA_Section1HW.xlsx
+++ b/Level1_BenjaminLiu/VBA_Section1HW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+  <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\G_project\VBAAssignmentSolution\Level1_BenjaminLiu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4005151B-D4BD-449F-BB1D-595548F92801}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04CB3FAA-6858-4064-BF6A-CED09DB2619B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="110">
   <si>
     <t>Bob</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>Hint: You might want to rewrite this data in a way that is more meaningful to Excel graphs!</t>
-  </si>
-  <si>
-    <t>Sample Output: (Yours does not have to look the same and long as you represent the data well)</t>
   </si>
   <si>
     <t>Hint: It will require mutiple Excel functions in one cell</t>
@@ -330,9 +327,6 @@
     <t>(全部)</t>
   </si>
   <si>
-    <t>平均值项:Returns</t>
-  </si>
-  <si>
     <t>Translation Helper:</t>
   </si>
   <si>
@@ -369,9 +363,6 @@
     <t>STD</t>
   </si>
   <si>
-    <t>4.The Correlation between E&amp;C, F&amp;E is negative</t>
-  </si>
-  <si>
     <t>3.The volatility of total return is lower than any individual. This is the benefits of diversification (By viewing total return as equally weighted portfolio of three assets)</t>
   </si>
   <si>
@@ -406,6 +397,21 @@
   </si>
   <si>
     <t>Title</t>
+  </si>
+  <si>
+    <t>Correlation Matrix</t>
+  </si>
+  <si>
+    <t>Average:Returns</t>
+  </si>
+  <si>
+    <t>Col</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>4.From the graph, there is no obvious correlation between the three asset class</t>
   </si>
 </sst>
 </file>
@@ -739,7 +745,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
@@ -849,6 +855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
@@ -4794,8 +4801,8 @@
           <c:min val="0.20833333333333334"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="[$-409]h:mm\ AM/PM;@" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4827,8 +4834,9 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="711617072"/>
-        <c:crosses val="max"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="4.1666666666666678E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4908,7 +4916,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Question 5'!$AE$6</c:f>
+              <c:f>'Question 5'!$R$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4929,7 +4937,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Question 5'!$AD$7:$AD$27</c:f>
+              <c:f>'Question 5'!$Q$7:$Q$27</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5001,7 +5009,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Question 5'!$AE$7:$AE$27</c:f>
+              <c:f>'Question 5'!$R$7:$R$27</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5082,7 +5090,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Question 5'!$AF$6</c:f>
+              <c:f>'Question 5'!$S$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5103,7 +5111,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Question 5'!$AD$7:$AD$27</c:f>
+              <c:f>'Question 5'!$Q$7:$Q$27</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5175,7 +5183,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Question 5'!$AF$7:$AF$27</c:f>
+              <c:f>'Question 5'!$S$7:$S$27</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5256,7 +5264,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Question 5'!$AG$6</c:f>
+              <c:f>'Question 5'!$T$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5277,7 +5285,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Question 5'!$AD$7:$AD$27</c:f>
+              <c:f>'Question 5'!$Q$7:$Q$27</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5349,7 +5357,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Question 5'!$AG$7:$AG$27</c:f>
+              <c:f>'Question 5'!$T$7:$T$27</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5430,7 +5438,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Question 5'!$AH$6</c:f>
+              <c:f>'Question 5'!$U$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5451,7 +5459,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Question 5'!$AD$7:$AD$27</c:f>
+              <c:f>'Question 5'!$Q$7:$Q$27</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5523,7 +5531,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Question 5'!$AH$7:$AH$27</c:f>
+              <c:f>'Question 5'!$U$7:$U$27</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5604,7 +5612,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Question 5'!$AI$6</c:f>
+              <c:f>'Question 5'!$V$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5625,7 +5633,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Question 5'!$AD$7:$AD$27</c:f>
+              <c:f>'Question 5'!$Q$7:$Q$27</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5697,7 +5705,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Question 5'!$AI$7:$AI$27</c:f>
+              <c:f>'Question 5'!$V$7:$V$27</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5778,7 +5786,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Question 5'!$AJ$6</c:f>
+              <c:f>'Question 5'!$W$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5799,7 +5807,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Question 5'!$AD$7:$AD$27</c:f>
+              <c:f>'Question 5'!$Q$7:$Q$27</c:f>
               <c:numCache>
                 <c:formatCode>[$-409]d\-mmm;@</c:formatCode>
                 <c:ptCount val="21"/>
@@ -5871,7 +5879,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Question 5'!$AJ$7:$AJ$27</c:f>
+              <c:f>'Question 5'!$W$7:$W$27</c:f>
               <c:numCache>
                 <c:formatCode>[$-F400]h:mm:ss\ AM/PM</c:formatCode>
                 <c:ptCount val="21"/>
@@ -6009,6 +6017,8 @@
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="5"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -6018,7 +6028,7 @@
           <c:min val="0.20833333333333337"/>
         </c:scaling>
         <c:delete val="0"/>
-        <c:axPos val="r"/>
+        <c:axPos val="l"/>
         <c:numFmt formatCode="[$-F400]h:mm:ss\ AM/PM" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6051,8 +6061,9 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="568892288"/>
-        <c:crosses val="max"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+        <c:majorUnit val="4.1666666666666678E-2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8283,7 +8294,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="31" fmlaLink="$AM$4" inc="5" max="60" page="10" val="20"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="31" fmlaLink="$Z$4" inc="5" max="60" page="10" val="20"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8420,62 +8431,18 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>296804</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>93605</xdr:rowOff>
+      <xdr:colOff>609058</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>153480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>3</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>132513</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13843471" y="1410642"/>
-          <a:ext cx="5812670" cy="1920390"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>456658</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>128080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>471713</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>163284</xdr:rowOff>
+      <xdr:colOff>217713</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>10884</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8494,7 +8461,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8502,15 +8469,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>503352</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>427152</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>20170</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>156147</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>79947</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>52049</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8530,7 +8497,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -8540,13 +8507,13 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor>
         <xdr:from>
-          <xdr:col>38</xdr:col>
+          <xdr:col>25</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>19050</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>39</xdr:col>
+          <xdr:col>26</xdr:col>
           <xdr:colOff>438150</xdr:colOff>
           <xdr:row>11</xdr:row>
           <xdr:rowOff>12700</xdr:rowOff>
@@ -8895,7 +8862,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E71FE4A-CF84-440F-B07B-BD44140DD7B9}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E71FE4A-CF84-440F-B07B-BD44140DD7B9}" name="数据透视表1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" grandTotalCaption="Total" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" rowHeaderCaption="Row" colHeaderCaption="Col">
   <location ref="A3:E17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
@@ -9037,7 +9004,7 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="平均值项:Returns" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="10"/>
+    <dataField name="Average:Returns" fld="3" subtotal="average" baseField="1" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="1">
     <format dxfId="0">
@@ -9418,8 +9385,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="68" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="68" zoomScaleNormal="100" zoomScaleSheetLayoutView="68" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9448,21 +9415,21 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" t="s">
         <v>76</v>
-      </c>
-      <c r="I4" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -9474,7 +9441,7 @@
         <v>Straw</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>1</v>
@@ -9482,7 +9449,7 @@
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="I6" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J6" s="18">
         <v>2500</v>
@@ -9502,7 +9469,7 @@
         <v>18</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="19">
         <v>1</v>
@@ -9676,7 +9643,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -9757,7 +9724,7 @@
         <v>106.77257856320611</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="17" t="str">
         <f>IF($B$11=$F$13,"Well Done!","Try Again!")</f>
@@ -9766,13 +9733,13 @@
     </row>
     <row r="13" spans="1:15" hidden="1" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>29</v>
@@ -9875,7 +9842,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:T254"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="D1" zoomScale="60" zoomScaleNormal="83" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="83" workbookViewId="0">
       <selection activeCell="AB31" sqref="AB31"/>
     </sheetView>
   </sheetViews>
@@ -9926,12 +9893,12 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="S4" s="33" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T4" s="34">
         <v>30</v>
@@ -9939,7 +9906,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="K6" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L6" s="31" t="str">
         <f ca="1">TEXT(K8,"mmm dd")&amp;"-"&amp;TEXT(K28,"mmm dd")&amp;" Returns"</f>
@@ -9961,13 +9928,13 @@
         <v>34</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G7" s="37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K7" s="38" t="str">
         <f>A7</f>
@@ -18301,7 +18268,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -18325,13 +18292,13 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" t="s">
         <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>50</v>
       </c>
       <c r="D4" t="s">
         <v>31</v>
@@ -18339,13 +18306,13 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" s="14">
         <v>0.13690313101214621</v>
@@ -18353,13 +18320,13 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D6" s="14">
         <v>8.996871123372098E-2</v>
@@ -18367,13 +18334,13 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D7" s="14">
         <v>5.2483096814189424E-2</v>
@@ -18381,13 +18348,13 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="14">
         <v>0.11378937176961901</v>
@@ -18395,13 +18362,13 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="14">
         <v>0.1364992227680826</v>
@@ -18409,13 +18376,13 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="14">
         <v>9.0264278385304639E-2</v>
@@ -18423,13 +18390,13 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="14">
         <v>5.9131431864503849E-2</v>
@@ -18437,13 +18404,13 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="14">
         <v>0.16608760858735616</v>
@@ -18451,13 +18418,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="14">
         <v>0.1231090073974242</v>
@@ -18465,13 +18432,13 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="14">
         <v>1.8506522976287836E-2</v>
@@ -18479,13 +18446,13 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" s="14">
         <v>0.14564237860469023</v>
@@ -18493,13 +18460,13 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
         <v>62</v>
       </c>
-      <c r="B16" t="s">
-        <v>63</v>
-      </c>
       <c r="C16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="14">
         <v>5.8985834673072314E-2</v>
@@ -18507,13 +18474,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D17" s="14">
         <v>0.10401387899731629</v>
@@ -18521,13 +18488,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D18" s="14">
         <v>0.12311404962175572</v>
@@ -18535,13 +18502,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="14">
         <v>0.16610070922520673</v>
@@ -18549,13 +18516,13 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D20" s="14">
         <v>5.6442175809312489E-2</v>
@@ -18563,13 +18530,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="14">
         <v>9.2416600397686011E-2</v>
@@ -18577,13 +18544,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="14">
         <v>2.6658707610029697E-2</v>
@@ -18591,13 +18558,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="14">
         <v>0.12743303079586935</v>
@@ -18605,13 +18572,13 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="14">
         <v>0.15098253753185614</v>
@@ -18619,13 +18586,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="14">
         <v>0.10731941421727614</v>
@@ -18633,13 +18600,13 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="14">
         <v>8.687777146471666E-2</v>
@@ -18647,13 +18614,13 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D27" s="14">
         <v>0.13257489103465744</v>
@@ -18661,13 +18628,13 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="14">
         <v>0.12697371501719698</v>
@@ -18675,13 +18642,13 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D29" s="14">
         <v>2.0964671678880515E-2</v>
@@ -18689,13 +18656,13 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="14">
         <v>0.12110645932004059</v>
@@ -18703,13 +18670,13 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D31" s="14">
         <v>2.9228576243900961E-2</v>
@@ -18717,13 +18684,13 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D32" s="14">
         <v>0.14980914873424536</v>
@@ -18731,13 +18698,13 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="14">
         <v>4.4535376259305405E-2</v>
@@ -18745,13 +18712,13 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D34" s="14">
         <v>0.10100463757795163</v>
@@ -18759,13 +18726,13 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D35" s="14">
         <v>8.1235307481595173E-2</v>
@@ -18773,13 +18740,13 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D36" s="14">
         <v>4.3715937546532226E-2</v>
@@ -18787,13 +18754,13 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D37" s="14">
         <v>0.12066554652455695</v>
@@ -18801,13 +18768,13 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="14">
         <v>0.15177914554018743</v>
@@ -18815,13 +18782,13 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D39" s="14">
         <v>0.15650994213795497</v>
@@ -18829,13 +18796,13 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D40" s="14">
         <v>9.2091919913156975E-2</v>
@@ -18856,66 +18823,61 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1796875" customWidth="1"/>
-    <col min="16" max="16" width="9.6328125" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="21" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>64</v>
-      </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="23">
         <v>0.13690313101214621</v>
@@ -18930,15 +18892,15 @@
         <v>8.7293893896114347E-2</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6" s="23">
         <v>8.996871123372098E-2</v>
@@ -18953,15 +18915,15 @@
         <v>0.11139640672517243</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="23">
         <v>5.2483096814189424E-2</v>
@@ -18976,15 +18938,15 @@
         <v>8.2604127427765697E-2</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="23">
         <v>0.11378937176961901</v>
@@ -18999,15 +18961,15 @@
         <v>0.10668023210439227</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="23">
         <v>0.1364992227680826</v>
@@ -19024,7 +18986,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B10" s="23">
         <v>9.0264278385304639E-2</v>
@@ -19041,7 +19003,7 @@
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B11" s="23">
         <v>5.9131431864503849E-2</v>
@@ -19058,7 +19020,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B12" s="23">
         <v>0.16608760858735616</v>
@@ -19075,7 +19037,7 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B13" s="23">
         <v>0.1231090073974242</v>
@@ -19092,7 +19054,7 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B14" s="23">
         <v>1.8506522976287836E-2</v>
@@ -19109,7 +19071,7 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="23">
         <v>0.14564237860469023</v>
@@ -19126,7 +19088,7 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="23">
         <v>5.8985834673072314E-2</v>
@@ -19143,7 +19105,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="22" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B17" s="23">
         <v>9.9280883007199783E-2</v>
@@ -19160,7 +19122,7 @@
     </row>
     <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B18" s="29">
         <f>_xlfn.STDEV.P(B5:B16)</f>
@@ -19180,23 +19142,25 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="26"/>
+      <c r="A19" s="26" t="s">
+        <v>105</v>
+      </c>
       <c r="B19" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>64</v>
-      </c>
       <c r="E19" s="26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="27">
         <v>1</v>
@@ -19207,7 +19171,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" s="27">
         <v>-0.20425277317228185</v>
@@ -19220,7 +19184,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="24" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="27">
         <v>2.8522112847971626E-2</v>
@@ -19235,7 +19199,7 @@
     </row>
     <row r="23" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="25" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B23" s="28">
         <v>0.59169383334933023</v>
@@ -19252,27 +19216,27 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -19307,26 +19271,27 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AM65"/>
+  <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="K1" zoomScale="55" zoomScaleNormal="37" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="AR11" sqref="AR11"/>
+    <sheetView showGridLines="0" topLeftCell="M1" zoomScale="57" zoomScaleNormal="25" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="14" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.453125" customWidth="1"/>
-    <col min="30" max="30" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="36" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="23" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="54" t="s">
         <v>42</v>
       </c>
@@ -19340,7 +19305,7 @@
       <c r="I1" s="55"/>
       <c r="J1" s="56"/>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="57"/>
       <c r="B2" s="58"/>
       <c r="C2" s="58"/>
@@ -19352,7 +19317,7 @@
       <c r="I2" s="58"/>
       <c r="J2" s="59"/>
     </row>
-    <row r="3" spans="1:39" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="60"/>
       <c r="B3" s="61"/>
       <c r="C3" s="61"/>
@@ -19365,24 +19330,25 @@
       <c r="J3" s="62"/>
       <c r="K3" s="32"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="AL4" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="AM4" s="34">
+      <c r="Y4" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="34">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.35">
-      <c r="P5" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM5" s="41"/>
-    </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="J5" s="63">
+        <f>J7/5</f>
+        <v>4.1666666667151728E-2</v>
+      </c>
+      <c r="Z5" s="41"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -19408,56 +19374,56 @@
         <v>18</v>
       </c>
       <c r="J6" t="s">
+        <v>94</v>
+      </c>
+      <c r="K6" t="s">
+        <v>95</v>
+      </c>
+      <c r="L6" t="s">
+        <v>96</v>
+      </c>
+      <c r="M6" t="s">
         <v>97</v>
       </c>
-      <c r="K6" t="s">
+      <c r="N6" t="s">
         <v>98</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>99</v>
       </c>
-      <c r="M6" t="s">
-        <v>100</v>
-      </c>
-      <c r="N6" t="s">
-        <v>101</v>
-      </c>
-      <c r="O6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AD6" s="1" t="str">
+      <c r="Q6" s="1" t="str">
         <f>I6</f>
         <v>Date</v>
       </c>
-      <c r="AE6" s="1" t="str">
-        <f t="shared" ref="AE6:AJ6" si="0">J6</f>
+      <c r="R6" s="1" t="str">
+        <f t="shared" ref="R6:W6" si="0">J6</f>
         <v>Point0</v>
       </c>
-      <c r="AF6" s="1" t="str">
+      <c r="S6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Point1</v>
       </c>
-      <c r="AG6" s="1" t="str">
+      <c r="T6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Point2</v>
       </c>
-      <c r="AH6" s="1" t="str">
+      <c r="U6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Point3</v>
       </c>
-      <c r="AI6" s="1" t="str">
+      <c r="V6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Point4</v>
       </c>
-      <c r="AJ6" s="1" t="str">
+      <c r="W6" s="1" t="str">
         <f t="shared" si="0"/>
         <v>Point5</v>
       </c>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>41640</v>
       </c>
@@ -19479,6 +19445,7 @@
       <c r="G7" s="13">
         <v>41640.949492770589</v>
       </c>
+      <c r="H7" s="13"/>
       <c r="I7" s="31">
         <f>A7</f>
         <v>41640</v>
@@ -19507,36 +19474,36 @@
         <f t="shared" si="1"/>
         <v>7.5286448212864343E-2</v>
       </c>
-      <c r="AD7" s="31">
-        <f t="array" aca="1" ref="AD7:AJ27" ca="1">OFFSET(I7:O64,AM4,0)</f>
+      <c r="Q7" s="31">
+        <f t="array" aca="1" ref="Q7:W27" ca="1">OFFSET(I7:O64,Z4,0)</f>
         <v>41668</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="R7" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF7" s="13">
+      <c r="S7" s="13">
         <f ca="1"/>
         <v>1.670687337173149E-2</v>
       </c>
-      <c r="AG7" s="13">
+      <c r="T7" s="13">
         <f ca="1"/>
         <v>9.115316942188656E-2</v>
       </c>
-      <c r="AH7" s="13">
+      <c r="U7" s="13">
         <f ca="1"/>
         <v>7.6008033189282287E-2</v>
       </c>
-      <c r="AI7" s="13">
+      <c r="V7" s="13">
         <f ca="1"/>
         <v>0.16869225422851741</v>
       </c>
-      <c r="AJ7" s="13">
+      <c r="W7" s="13">
         <f ca="1"/>
         <v>2.8033801580022555E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>41641</v>
       </c>
@@ -19558,6 +19525,7 @@
       <c r="G8" s="13">
         <v>41641.653403383461</v>
       </c>
+      <c r="H8" s="63"/>
       <c r="I8" s="31">
         <f t="shared" ref="I8:I64" si="2">A8</f>
         <v>41641</v>
@@ -19586,36 +19554,36 @@
         <f t="shared" ref="O8:O64" si="8">G8-F8</f>
         <v>5.0795347415260039E-2</v>
       </c>
-      <c r="AD8" s="31">
+      <c r="Q8" s="31">
         <f ca="1"/>
         <v>41669</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="R8" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF8" s="13">
+      <c r="S8" s="13">
         <f ca="1"/>
         <v>0.16763824805821059</v>
       </c>
-      <c r="AG8" s="13">
+      <c r="T8" s="13">
         <f ca="1"/>
         <v>9.6062292162969243E-2</v>
       </c>
-      <c r="AH8" s="13">
+      <c r="U8" s="13">
         <f ca="1"/>
         <v>6.4717318047769368E-2</v>
       </c>
-      <c r="AI8" s="13">
+      <c r="V8" s="13">
         <f ca="1"/>
         <v>2.5946522764570545E-2</v>
       </c>
-      <c r="AJ8" s="13">
+      <c r="W8" s="13">
         <f ca="1"/>
         <v>5.8727880430524237E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>41642</v>
       </c>
@@ -19637,6 +19605,7 @@
       <c r="G9" s="13">
         <v>41642.52718982959</v>
       </c>
+      <c r="H9" s="13"/>
       <c r="I9" s="31">
         <f t="shared" si="2"/>
         <v>41642</v>
@@ -19665,36 +19634,36 @@
         <f t="shared" si="8"/>
         <v>9.8680019960738719E-2</v>
       </c>
-      <c r="AD9" s="31">
+      <c r="Q9" s="31">
         <f ca="1"/>
         <v>41670</v>
       </c>
-      <c r="AE9" s="13">
+      <c r="R9" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF9" s="13">
+      <c r="S9" s="13">
         <f ca="1"/>
         <v>7.9778245089983102E-2</v>
       </c>
-      <c r="AG9" s="13">
+      <c r="T9" s="13">
         <f ca="1"/>
         <v>8.5696639383968432E-2</v>
       </c>
-      <c r="AH9" s="13">
+      <c r="U9" s="13">
         <f ca="1"/>
         <v>1.2693875032709911E-2</v>
       </c>
-      <c r="AI9" s="13">
+      <c r="V9" s="13">
         <f ca="1"/>
         <v>9.2232303191849496E-2</v>
       </c>
-      <c r="AJ9" s="13">
+      <c r="W9" s="13">
         <f ca="1"/>
         <v>4.9512135730765294E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>41645</v>
       </c>
@@ -19744,36 +19713,36 @@
         <f t="shared" si="8"/>
         <v>4.0597796687507071E-3</v>
       </c>
-      <c r="AD10" s="31">
+      <c r="Q10" s="31">
         <f ca="1"/>
         <v>41673</v>
       </c>
-      <c r="AE10" s="13">
+      <c r="R10" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF10" s="13">
+      <c r="S10" s="13">
         <f ca="1"/>
         <v>0.13700080679700477</v>
       </c>
-      <c r="AG10" s="13">
+      <c r="T10" s="13">
         <f ca="1"/>
         <v>0.11526955797307892</v>
       </c>
-      <c r="AH10" s="13">
+      <c r="U10" s="13">
         <f ca="1"/>
         <v>6.2343719480850268E-2</v>
       </c>
-      <c r="AI10" s="13">
+      <c r="V10" s="13">
         <f ca="1"/>
         <v>8.2551191146194469E-2</v>
       </c>
-      <c r="AJ10" s="13">
+      <c r="W10" s="13">
         <f ca="1"/>
         <v>9.8431961727328598E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>41646</v>
       </c>
@@ -19823,36 +19792,36 @@
         <f t="shared" si="8"/>
         <v>7.9830389287963044E-2</v>
       </c>
-      <c r="AD11" s="31">
+      <c r="Q11" s="31">
         <f ca="1"/>
         <v>41674</v>
       </c>
-      <c r="AE11" s="13">
+      <c r="R11" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF11" s="13">
+      <c r="S11" s="13">
         <f ca="1"/>
         <v>0.14236334137967788</v>
       </c>
-      <c r="AG11" s="13">
+      <c r="T11" s="13">
         <f ca="1"/>
         <v>0.11844925935292849</v>
       </c>
-      <c r="AH11" s="13">
+      <c r="U11" s="13">
         <f ca="1"/>
         <v>5.628344661090523E-2</v>
       </c>
-      <c r="AI11" s="13">
+      <c r="V11" s="13">
         <f ca="1"/>
         <v>9.7909908770816401E-2</v>
       </c>
-      <c r="AJ11" s="13">
+      <c r="W11" s="13">
         <f ca="1"/>
         <v>1.8490009468223434E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>41647</v>
       </c>
@@ -19902,36 +19871,36 @@
         <f t="shared" si="8"/>
         <v>0.11325778474565595</v>
       </c>
-      <c r="AD12" s="31">
+      <c r="Q12" s="31">
         <f ca="1"/>
         <v>41675</v>
       </c>
-      <c r="AE12" s="13">
+      <c r="R12" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF12" s="13">
+      <c r="S12" s="13">
         <f ca="1"/>
         <v>5.2805783874646295E-2</v>
       </c>
-      <c r="AG12" s="13">
+      <c r="T12" s="13">
         <f ca="1"/>
         <v>5.7241167865868192E-2</v>
       </c>
-      <c r="AH12" s="13">
+      <c r="U12" s="13">
         <f ca="1"/>
         <v>4.9642534810118377E-2</v>
       </c>
-      <c r="AI12" s="13">
+      <c r="V12" s="13">
         <f ca="1"/>
         <v>0.19952135826315498</v>
       </c>
-      <c r="AJ12" s="13">
+      <c r="W12" s="13">
         <f ca="1"/>
         <v>0.10853270519146463</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>41648</v>
       </c>
@@ -19981,36 +19950,36 @@
         <f t="shared" si="8"/>
         <v>2.7558233101444785E-2</v>
       </c>
-      <c r="AD13" s="31">
+      <c r="Q13" s="31">
         <f ca="1"/>
         <v>41676</v>
       </c>
-      <c r="AE13" s="13">
+      <c r="R13" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF13" s="13">
+      <c r="S13" s="13">
         <f ca="1"/>
         <v>0.16569086858362425</v>
       </c>
-      <c r="AG13" s="13">
+      <c r="T13" s="13">
         <f ca="1"/>
         <v>0.10919406027096556</v>
       </c>
-      <c r="AH13" s="13">
+      <c r="U13" s="13">
         <f ca="1"/>
         <v>1.304513898503501E-2</v>
       </c>
-      <c r="AI13" s="13">
+      <c r="V13" s="13">
         <f ca="1"/>
         <v>0.1994323871404049</v>
       </c>
-      <c r="AJ13" s="13">
+      <c r="W13" s="13">
         <f ca="1"/>
         <v>2.7764852493419312E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>41649</v>
       </c>
@@ -20060,36 +20029,36 @@
         <f t="shared" si="8"/>
         <v>0.10929380932066124</v>
       </c>
-      <c r="AD14" s="31">
+      <c r="Q14" s="31">
         <f ca="1"/>
         <v>41677</v>
       </c>
-      <c r="AE14" s="13">
+      <c r="R14" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF14" s="13">
+      <c r="S14" s="13">
         <f ca="1"/>
         <v>0.10477784068643814</v>
       </c>
-      <c r="AG14" s="13">
+      <c r="T14" s="13">
         <f ca="1"/>
         <v>3.2117151764396112E-2</v>
       </c>
-      <c r="AH14" s="13">
+      <c r="U14" s="13">
         <f ca="1"/>
         <v>5.8416435625986196E-2</v>
       </c>
-      <c r="AI14" s="13">
+      <c r="V14" s="13">
         <f ca="1"/>
         <v>2.2686296084430069E-2</v>
       </c>
-      <c r="AJ14" s="13">
+      <c r="W14" s="13">
         <f ca="1"/>
         <v>5.3388600063044578E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>41652</v>
       </c>
@@ -20139,36 +20108,36 @@
         <f t="shared" si="8"/>
         <v>2.6819566046469845E-2</v>
       </c>
-      <c r="AD15" s="31">
+      <c r="Q15" s="31">
         <f ca="1"/>
         <v>41680</v>
       </c>
-      <c r="AE15" s="13">
+      <c r="R15" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF15" s="13">
+      <c r="S15" s="13">
         <f ca="1"/>
         <v>0.15538790728896856</v>
       </c>
-      <c r="AG15" s="13">
+      <c r="T15" s="13">
         <f ca="1"/>
         <v>5.6210702714452054E-2</v>
       </c>
-      <c r="AH15" s="13">
+      <c r="U15" s="13">
         <f ca="1"/>
         <v>5.8729434851557016E-2</v>
       </c>
-      <c r="AI15" s="13">
+      <c r="V15" s="13">
         <f ca="1"/>
         <v>0.15843105092790211</v>
       </c>
-      <c r="AJ15" s="13">
+      <c r="W15" s="13">
         <f ca="1"/>
         <v>0.10284905521984911</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>41653</v>
       </c>
@@ -20218,36 +20187,36 @@
         <f t="shared" si="8"/>
         <v>9.5137791940942407E-2</v>
       </c>
-      <c r="AD16" s="31">
+      <c r="Q16" s="31">
         <f ca="1"/>
         <v>41681</v>
       </c>
-      <c r="AE16" s="13">
+      <c r="R16" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF16" s="13">
+      <c r="S16" s="13">
         <f ca="1"/>
         <v>5.5906333451275714E-2</v>
       </c>
-      <c r="AG16" s="13">
+      <c r="T16" s="13">
         <f ca="1"/>
         <v>7.1787649772886652E-2</v>
       </c>
-      <c r="AH16" s="13">
+      <c r="U16" s="13">
         <f ca="1"/>
         <v>5.4128242751176003E-2</v>
       </c>
-      <c r="AI16" s="13">
+      <c r="V16" s="13">
         <f ca="1"/>
         <v>0.18851178215845721</v>
       </c>
-      <c r="AJ16" s="13">
+      <c r="W16" s="13">
         <f ca="1"/>
         <v>1.2136730656493455E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>41654</v>
       </c>
@@ -20297,36 +20266,36 @@
         <f t="shared" si="8"/>
         <v>3.1238666553690564E-2</v>
       </c>
-      <c r="AD17" s="31">
+      <c r="Q17" s="31">
         <f ca="1"/>
         <v>41682</v>
       </c>
-      <c r="AE17" s="13">
+      <c r="R17" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF17" s="13">
+      <c r="S17" s="13">
         <f ca="1"/>
         <v>0.19611534985597245</v>
       </c>
-      <c r="AG17" s="13">
+      <c r="T17" s="13">
         <f ca="1"/>
         <v>1.3699322953470983E-3</v>
       </c>
-      <c r="AH17" s="13">
+      <c r="U17" s="13">
         <f ca="1"/>
         <v>6.4279878737579565E-2</v>
       </c>
-      <c r="AI17" s="13">
+      <c r="V17" s="13">
         <f ca="1"/>
         <v>0.1323256305186078</v>
       </c>
-      <c r="AJ17" s="13">
+      <c r="W17" s="13">
         <f ca="1"/>
         <v>3.2545883506827522E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>41655</v>
       </c>
@@ -20376,36 +20345,36 @@
         <f t="shared" si="8"/>
         <v>3.97737577004591E-2</v>
       </c>
-      <c r="AD18" s="31">
+      <c r="Q18" s="31">
         <f ca="1"/>
         <v>41683</v>
       </c>
-      <c r="AE18" s="13">
+      <c r="R18" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF18" s="13">
+      <c r="S18" s="13">
         <f ca="1"/>
         <v>4.2707913620688487E-2</v>
       </c>
-      <c r="AG18" s="13">
+      <c r="T18" s="13">
         <f ca="1"/>
         <v>2.220453362679109E-2</v>
       </c>
-      <c r="AH18" s="13">
+      <c r="U18" s="13">
         <f ca="1"/>
         <v>1.8354962114244699E-2</v>
       </c>
-      <c r="AI18" s="13">
+      <c r="V18" s="13">
         <f ca="1"/>
         <v>6.7420817322272342E-2</v>
       </c>
-      <c r="AJ18" s="13">
+      <c r="W18" s="13">
         <f ca="1"/>
         <v>7.9603256301197689E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>41656</v>
       </c>
@@ -20455,36 +20424,36 @@
         <f t="shared" si="8"/>
         <v>3.2885046653973404E-2</v>
       </c>
-      <c r="AD19" s="31">
+      <c r="Q19" s="31">
         <f ca="1"/>
         <v>41684</v>
       </c>
-      <c r="AE19" s="13">
+      <c r="R19" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF19" s="13">
+      <c r="S19" s="13">
         <f ca="1"/>
         <v>0.1848414735213737</v>
       </c>
-      <c r="AG19" s="13">
+      <c r="T19" s="13">
         <f ca="1"/>
         <v>9.2566114471992478E-4</v>
       </c>
-      <c r="AH19" s="13">
+      <c r="U19" s="13">
         <f ca="1"/>
         <v>4.4901844681589864E-2</v>
       </c>
-      <c r="AI19" s="13">
+      <c r="V19" s="13">
         <f ca="1"/>
         <v>0.19007239067286719</v>
       </c>
-      <c r="AJ19" s="13">
+      <c r="W19" s="13">
         <f ca="1"/>
         <v>2.2834626943222247E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>41659</v>
       </c>
@@ -20534,36 +20503,36 @@
         <f t="shared" si="8"/>
         <v>4.3228891074249987E-2</v>
       </c>
-      <c r="AD20" s="31">
+      <c r="Q20" s="31">
         <f ca="1"/>
         <v>41687</v>
       </c>
-      <c r="AE20" s="13">
+      <c r="R20" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF20" s="13">
+      <c r="S20" s="13">
         <f ca="1"/>
         <v>8.5593711250112392E-2</v>
       </c>
-      <c r="AG20" s="13">
+      <c r="T20" s="13">
         <f ca="1"/>
         <v>4.2194448251393624E-2</v>
       </c>
-      <c r="AH20" s="13">
+      <c r="U20" s="13">
         <f ca="1"/>
         <v>1.2267089645320084E-2</v>
       </c>
-      <c r="AI20" s="13">
+      <c r="V20" s="13">
         <f ca="1"/>
         <v>7.2118557232897729E-2</v>
       </c>
-      <c r="AJ20" s="13">
+      <c r="W20" s="13">
         <f ca="1"/>
         <v>0.10798923063703114</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>41660</v>
       </c>
@@ -20613,36 +20582,36 @@
         <f t="shared" si="8"/>
         <v>0.10177930432837456</v>
       </c>
-      <c r="AD21" s="31">
+      <c r="Q21" s="31">
         <f ca="1"/>
         <v>41688</v>
       </c>
-      <c r="AE21" s="13">
+      <c r="R21" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF21" s="13">
+      <c r="S21" s="13">
         <f ca="1"/>
         <v>6.1303048751142342E-2</v>
       </c>
-      <c r="AG21" s="13">
+      <c r="T21" s="13">
         <f ca="1"/>
         <v>6.7628944372700062E-2</v>
       </c>
-      <c r="AH21" s="13">
+      <c r="U21" s="13">
         <f ca="1"/>
         <v>5.6221046397695318E-3</v>
       </c>
-      <c r="AI21" s="13">
+      <c r="V21" s="13">
         <f ca="1"/>
         <v>8.559862674883334E-2</v>
       </c>
-      <c r="AJ21" s="13">
+      <c r="W21" s="13">
         <f ca="1"/>
         <v>4.1266237458330579E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>41661</v>
       </c>
@@ -20692,36 +20661,36 @@
         <f t="shared" si="8"/>
         <v>4.4148713008326013E-2</v>
       </c>
-      <c r="AD22" s="31">
+      <c r="Q22" s="31">
         <f ca="1"/>
         <v>41689</v>
       </c>
-      <c r="AE22" s="13">
+      <c r="R22" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF22" s="13">
+      <c r="S22" s="13">
         <f ca="1"/>
         <v>1.5778265529661439E-2</v>
       </c>
-      <c r="AG22" s="13">
+      <c r="T22" s="13">
         <f ca="1"/>
         <v>3.8823815841169562E-2</v>
       </c>
-      <c r="AH22" s="13">
+      <c r="U22" s="13">
         <f ca="1"/>
         <v>1.1257324040343519E-2</v>
       </c>
-      <c r="AI22" s="13">
+      <c r="V22" s="13">
         <f ca="1"/>
         <v>5.3773890220327303E-2</v>
       </c>
-      <c r="AJ22" s="13">
+      <c r="W22" s="13">
         <f ca="1"/>
         <v>6.0791070201958064E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>41662</v>
       </c>
@@ -20771,36 +20740,36 @@
         <f t="shared" si="8"/>
         <v>0.1165919147169916</v>
       </c>
-      <c r="AD23" s="31">
+      <c r="Q23" s="31">
         <f ca="1"/>
         <v>41690</v>
       </c>
-      <c r="AE23" s="13">
+      <c r="R23" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF23" s="13">
+      <c r="S23" s="13">
         <f ca="1"/>
         <v>0.21603661096742144</v>
       </c>
-      <c r="AG23" s="13">
+      <c r="T23" s="13">
         <f ca="1"/>
         <v>1.1062658762966748E-2</v>
       </c>
-      <c r="AH23" s="13">
+      <c r="U23" s="13">
         <f ca="1"/>
         <v>5.670953187654959E-2</v>
       </c>
-      <c r="AI23" s="13">
+      <c r="V23" s="13">
         <f ca="1"/>
         <v>9.5463109755655751E-2</v>
       </c>
-      <c r="AJ23" s="13">
+      <c r="W23" s="13">
         <f ca="1"/>
         <v>8.2391439493221696E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>41663</v>
       </c>
@@ -20850,36 +20819,36 @@
         <f t="shared" si="8"/>
         <v>1.3533647703297902E-2</v>
       </c>
-      <c r="AD24" s="31">
+      <c r="Q24" s="31">
         <f ca="1"/>
         <v>41691</v>
       </c>
-      <c r="AE24" s="13">
+      <c r="R24" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF24" s="13">
+      <c r="S24" s="13">
         <f ca="1"/>
         <v>0.1917109821079066</v>
       </c>
-      <c r="AG24" s="13">
+      <c r="T24" s="13">
         <f ca="1"/>
         <v>4.0956604279926978E-3</v>
       </c>
-      <c r="AH24" s="13">
+      <c r="U24" s="13">
         <f ca="1"/>
         <v>3.9843026977905538E-2</v>
       </c>
-      <c r="AI24" s="13">
+      <c r="V24" s="13">
         <f ca="1"/>
         <v>7.633953815093264E-2</v>
       </c>
-      <c r="AJ24" s="13">
+      <c r="W24" s="13">
         <f ca="1"/>
         <v>1.73750499743619E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>41666</v>
       </c>
@@ -20929,36 +20898,36 @@
         <f t="shared" si="8"/>
         <v>4.273539743735455E-4</v>
       </c>
-      <c r="AD25" s="31">
+      <c r="Q25" s="31">
         <f ca="1"/>
         <v>41694</v>
       </c>
-      <c r="AE25" s="13">
+      <c r="R25" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF25" s="13">
+      <c r="S25" s="13">
         <f ca="1"/>
         <v>0.24899257130164187</v>
       </c>
-      <c r="AG25" s="13">
+      <c r="T25" s="13">
         <f ca="1"/>
         <v>4.1962314935517497E-2</v>
       </c>
-      <c r="AH25" s="13">
+      <c r="U25" s="13">
         <f ca="1"/>
         <v>8.1086676073027775E-3</v>
       </c>
-      <c r="AI25" s="13">
+      <c r="V25" s="13">
         <f ca="1"/>
         <v>6.6015907301334664E-2</v>
       </c>
-      <c r="AJ25" s="13">
+      <c r="W25" s="13">
         <f ca="1"/>
         <v>2.3523660835053306E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>41667</v>
       </c>
@@ -21008,36 +20977,36 @@
         <f t="shared" si="8"/>
         <v>9.0537027099344414E-2</v>
       </c>
-      <c r="AD26" s="31">
+      <c r="Q26" s="31">
         <f ca="1"/>
         <v>41695</v>
       </c>
-      <c r="AE26" s="13">
+      <c r="R26" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF26" s="13">
+      <c r="S26" s="13">
         <f ca="1"/>
         <v>3.2220859720837325E-2</v>
       </c>
-      <c r="AG26" s="13">
+      <c r="T26" s="13">
         <f ca="1"/>
         <v>0.11487939648213796</v>
       </c>
-      <c r="AH26" s="13">
+      <c r="U26" s="13">
         <f ca="1"/>
         <v>6.586267762031639E-2</v>
       </c>
-      <c r="AI26" s="13">
+      <c r="V26" s="13">
         <f ca="1"/>
         <v>0.14708295976015506</v>
       </c>
-      <c r="AJ26" s="13">
+      <c r="W26" s="13">
         <f ca="1"/>
         <v>8.1666476820828393E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>41668</v>
       </c>
@@ -21087,36 +21056,36 @@
         <f t="shared" si="8"/>
         <v>2.8033801580022555E-2</v>
       </c>
-      <c r="AD27" s="31">
+      <c r="Q27" s="31">
         <f ca="1"/>
         <v>41696</v>
       </c>
-      <c r="AE27" s="13">
+      <c r="R27" s="13">
         <f ca="1"/>
         <v>0.20833333333575865</v>
       </c>
-      <c r="AF27" s="13">
+      <c r="S27" s="13">
         <f ca="1"/>
         <v>0.23203655707766302</v>
       </c>
-      <c r="AG27" s="13">
+      <c r="T27" s="13">
         <f ca="1"/>
         <v>0.12370450358866947</v>
       </c>
-      <c r="AH27" s="13">
+      <c r="U27" s="13">
         <f ca="1"/>
         <v>1.5560643892968073E-2</v>
       </c>
-      <c r="AI27" s="13">
+      <c r="V27" s="13">
         <f ca="1"/>
         <v>7.2761295850796159E-2</v>
       </c>
-      <c r="AJ27" s="13">
+      <c r="W27" s="13">
         <f ca="1"/>
         <v>3.1443298910744488E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>41669</v>
       </c>
@@ -21166,15 +21135,15 @@
         <f t="shared" si="8"/>
         <v>5.8727880430524237E-2</v>
       </c>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
-      <c r="AH28" s="13"/>
-      <c r="AI28" s="13"/>
-      <c r="AJ28" s="13"/>
-    </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q28" s="31"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>41670</v>
       </c>
@@ -21224,15 +21193,15 @@
         <f t="shared" si="8"/>
         <v>4.9512135730765294E-2</v>
       </c>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="13"/>
-      <c r="AG29" s="13"/>
-      <c r="AH29" s="13"/>
-      <c r="AI29" s="13"/>
-      <c r="AJ29" s="13"/>
-    </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q29" s="31"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>41673</v>
       </c>
@@ -21282,15 +21251,15 @@
         <f t="shared" si="8"/>
         <v>9.8431961727328598E-2</v>
       </c>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="13"/>
-      <c r="AG30" s="13"/>
-      <c r="AH30" s="13"/>
-      <c r="AI30" s="13"/>
-      <c r="AJ30" s="13"/>
-    </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q30" s="31"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>41674</v>
       </c>
@@ -21340,15 +21309,15 @@
         <f t="shared" si="8"/>
         <v>1.8490009468223434E-2</v>
       </c>
-      <c r="AD31" s="31"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="13"/>
-      <c r="AG31" s="13"/>
-      <c r="AH31" s="13"/>
-      <c r="AI31" s="13"/>
-      <c r="AJ31" s="13"/>
-    </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q31" s="31"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>41675</v>
       </c>
@@ -21398,15 +21367,15 @@
         <f t="shared" si="8"/>
         <v>0.10853270519146463</v>
       </c>
-      <c r="AD32" s="31"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="13"/>
-      <c r="AG32" s="13"/>
-      <c r="AH32" s="13"/>
-      <c r="AI32" s="13"/>
-      <c r="AJ32" s="13"/>
-    </row>
-    <row r="33" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q32" s="31"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>41676</v>
       </c>
@@ -21456,15 +21425,15 @@
         <f t="shared" si="8"/>
         <v>2.7764852493419312E-2</v>
       </c>
-      <c r="AD33" s="31"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="13"/>
-      <c r="AG33" s="13"/>
-      <c r="AH33" s="13"/>
-      <c r="AI33" s="13"/>
-      <c r="AJ33" s="13"/>
-    </row>
-    <row r="34" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q33" s="31"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>41677</v>
       </c>
@@ -21514,15 +21483,15 @@
         <f t="shared" si="8"/>
         <v>5.3388600063044578E-3</v>
       </c>
-      <c r="AD34" s="31"/>
-      <c r="AE34" s="13"/>
-      <c r="AF34" s="13"/>
-      <c r="AG34" s="13"/>
-      <c r="AH34" s="13"/>
-      <c r="AI34" s="13"/>
-      <c r="AJ34" s="13"/>
-    </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q34" s="31"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>41680</v>
       </c>
@@ -21572,15 +21541,15 @@
         <f t="shared" si="8"/>
         <v>0.10284905521984911</v>
       </c>
-      <c r="AD35" s="31"/>
-      <c r="AE35" s="13"/>
-      <c r="AF35" s="13"/>
-      <c r="AG35" s="13"/>
-      <c r="AH35" s="13"/>
-      <c r="AI35" s="13"/>
-      <c r="AJ35" s="13"/>
-    </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q35" s="31"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>41681</v>
       </c>
@@ -21630,15 +21599,15 @@
         <f t="shared" si="8"/>
         <v>1.2136730656493455E-2</v>
       </c>
-      <c r="AD36" s="31"/>
-      <c r="AE36" s="13"/>
-      <c r="AF36" s="13"/>
-      <c r="AG36" s="13"/>
-      <c r="AH36" s="13"/>
-      <c r="AI36" s="13"/>
-      <c r="AJ36" s="13"/>
-    </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q36" s="31"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>41682</v>
       </c>
@@ -21688,15 +21657,15 @@
         <f t="shared" si="8"/>
         <v>3.2545883506827522E-2</v>
       </c>
-      <c r="AD37" s="31"/>
-      <c r="AE37" s="13"/>
-      <c r="AF37" s="13"/>
-      <c r="AG37" s="13"/>
-      <c r="AH37" s="13"/>
-      <c r="AI37" s="13"/>
-      <c r="AJ37" s="13"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q37" s="31"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>41683</v>
       </c>
@@ -21746,15 +21715,15 @@
         <f t="shared" si="8"/>
         <v>7.9603256301197689E-2</v>
       </c>
-      <c r="AD38" s="31"/>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
-      <c r="AG38" s="13"/>
-      <c r="AH38" s="13"/>
-      <c r="AI38" s="13"/>
-      <c r="AJ38" s="13"/>
-    </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q38" s="31"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>41684</v>
       </c>
@@ -21804,15 +21773,15 @@
         <f t="shared" si="8"/>
         <v>2.2834626943222247E-3</v>
       </c>
-      <c r="AD39" s="31"/>
-      <c r="AE39" s="13"/>
-      <c r="AF39" s="13"/>
-      <c r="AG39" s="13"/>
-      <c r="AH39" s="13"/>
-      <c r="AI39" s="13"/>
-      <c r="AJ39" s="13"/>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q39" s="31"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>41687</v>
       </c>
@@ -21862,15 +21831,15 @@
         <f t="shared" si="8"/>
         <v>0.10798923063703114</v>
       </c>
-      <c r="AD40" s="31"/>
-      <c r="AE40" s="13"/>
-      <c r="AF40" s="13"/>
-      <c r="AG40" s="13"/>
-      <c r="AH40" s="13"/>
-      <c r="AI40" s="13"/>
-      <c r="AJ40" s="13"/>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q40" s="31"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>41688</v>
       </c>
@@ -21920,15 +21889,15 @@
         <f t="shared" si="8"/>
         <v>4.1266237458330579E-3</v>
       </c>
-      <c r="AD41" s="31"/>
-      <c r="AE41" s="13"/>
-      <c r="AF41" s="13"/>
-      <c r="AG41" s="13"/>
-      <c r="AH41" s="13"/>
-      <c r="AI41" s="13"/>
-      <c r="AJ41" s="13"/>
-    </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q41" s="31"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41689</v>
       </c>
@@ -21978,15 +21947,15 @@
         <f t="shared" si="8"/>
         <v>6.0791070201958064E-2</v>
       </c>
-      <c r="AD42" s="31"/>
-      <c r="AE42" s="13"/>
-      <c r="AF42" s="13"/>
-      <c r="AG42" s="13"/>
-      <c r="AH42" s="13"/>
-      <c r="AI42" s="13"/>
-      <c r="AJ42" s="13"/>
-    </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q42" s="31"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>41690</v>
       </c>
@@ -22036,15 +22005,15 @@
         <f t="shared" si="8"/>
         <v>8.2391439493221696E-2</v>
       </c>
-      <c r="AD43" s="31"/>
-      <c r="AE43" s="13"/>
-      <c r="AF43" s="13"/>
-      <c r="AG43" s="13"/>
-      <c r="AH43" s="13"/>
-      <c r="AI43" s="13"/>
-      <c r="AJ43" s="13"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q43" s="31"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="U43" s="13"/>
+      <c r="V43" s="13"/>
+      <c r="W43" s="13"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>41691</v>
       </c>
@@ -22094,15 +22063,15 @@
         <f t="shared" si="8"/>
         <v>1.73750499743619E-2</v>
       </c>
-      <c r="AD44" s="31"/>
-      <c r="AE44" s="13"/>
-      <c r="AF44" s="13"/>
-      <c r="AG44" s="13"/>
-      <c r="AH44" s="13"/>
-      <c r="AI44" s="13"/>
-      <c r="AJ44" s="13"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q44" s="31"/>
+      <c r="R44" s="13"/>
+      <c r="S44" s="13"/>
+      <c r="T44" s="13"/>
+      <c r="U44" s="13"/>
+      <c r="V44" s="13"/>
+      <c r="W44" s="13"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>41694</v>
       </c>
@@ -22152,15 +22121,15 @@
         <f t="shared" si="8"/>
         <v>2.3523660835053306E-2</v>
       </c>
-      <c r="AD45" s="31"/>
-      <c r="AE45" s="13"/>
-      <c r="AF45" s="13"/>
-      <c r="AG45" s="13"/>
-      <c r="AH45" s="13"/>
-      <c r="AI45" s="13"/>
-      <c r="AJ45" s="13"/>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q45" s="31"/>
+      <c r="R45" s="13"/>
+      <c r="S45" s="13"/>
+      <c r="T45" s="13"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>41695</v>
       </c>
@@ -22210,15 +22179,15 @@
         <f t="shared" si="8"/>
         <v>8.1666476820828393E-2</v>
       </c>
-      <c r="AD46" s="31"/>
-      <c r="AE46" s="13"/>
-      <c r="AF46" s="13"/>
-      <c r="AG46" s="13"/>
-      <c r="AH46" s="13"/>
-      <c r="AI46" s="13"/>
-      <c r="AJ46" s="13"/>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q46" s="31"/>
+      <c r="R46" s="13"/>
+      <c r="S46" s="13"/>
+      <c r="T46" s="13"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>41696</v>
       </c>
@@ -22268,15 +22237,15 @@
         <f t="shared" si="8"/>
         <v>3.1443298910744488E-2</v>
       </c>
-      <c r="AD47" s="31"/>
-      <c r="AE47" s="13"/>
-      <c r="AF47" s="13"/>
-      <c r="AG47" s="13"/>
-      <c r="AH47" s="13"/>
-      <c r="AI47" s="13"/>
-      <c r="AJ47" s="13"/>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q47" s="31"/>
+      <c r="R47" s="13"/>
+      <c r="S47" s="13"/>
+      <c r="T47" s="13"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>41697</v>
       </c>
@@ -22326,15 +22295,15 @@
         <f t="shared" si="8"/>
         <v>5.8040050738782156E-2</v>
       </c>
-      <c r="AD48" s="31"/>
-      <c r="AE48" s="13"/>
-      <c r="AF48" s="13"/>
-      <c r="AG48" s="13"/>
-      <c r="AH48" s="13"/>
-      <c r="AI48" s="13"/>
-      <c r="AJ48" s="13"/>
-    </row>
-    <row r="49" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q48" s="31"/>
+      <c r="R48" s="13"/>
+      <c r="S48" s="13"/>
+      <c r="T48" s="13"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>41698</v>
       </c>
@@ -22384,15 +22353,15 @@
         <f t="shared" si="8"/>
         <v>0.11853318153589498</v>
       </c>
-      <c r="AD49" s="31"/>
-      <c r="AE49" s="13"/>
-      <c r="AF49" s="13"/>
-      <c r="AG49" s="13"/>
-      <c r="AH49" s="13"/>
-      <c r="AI49" s="13"/>
-      <c r="AJ49" s="13"/>
-    </row>
-    <row r="50" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q49" s="31"/>
+      <c r="R49" s="13"/>
+      <c r="S49" s="13"/>
+      <c r="T49" s="13"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>41701</v>
       </c>
@@ -22442,15 +22411,15 @@
         <f t="shared" si="8"/>
         <v>5.7356229517608881E-3</v>
       </c>
-      <c r="AD50" s="31"/>
-      <c r="AE50" s="13"/>
-      <c r="AF50" s="13"/>
-      <c r="AG50" s="13"/>
-      <c r="AH50" s="13"/>
-      <c r="AI50" s="13"/>
-      <c r="AJ50" s="13"/>
-    </row>
-    <row r="51" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q50" s="31"/>
+      <c r="R50" s="13"/>
+      <c r="S50" s="13"/>
+      <c r="T50" s="13"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>41702</v>
       </c>
@@ -22500,15 +22469,15 @@
         <f t="shared" si="8"/>
         <v>0.11566148816200439</v>
       </c>
-      <c r="AD51" s="31"/>
-      <c r="AE51" s="13"/>
-      <c r="AF51" s="13"/>
-      <c r="AG51" s="13"/>
-      <c r="AH51" s="13"/>
-      <c r="AI51" s="13"/>
-      <c r="AJ51" s="13"/>
-    </row>
-    <row r="52" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q51" s="31"/>
+      <c r="R51" s="13"/>
+      <c r="S51" s="13"/>
+      <c r="T51" s="13"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>41703</v>
       </c>
@@ -22558,15 +22527,15 @@
         <f t="shared" si="8"/>
         <v>5.3997156312107109E-2</v>
       </c>
-      <c r="AD52" s="31"/>
-      <c r="AE52" s="13"/>
-      <c r="AF52" s="13"/>
-      <c r="AG52" s="13"/>
-      <c r="AH52" s="13"/>
-      <c r="AI52" s="13"/>
-      <c r="AJ52" s="13"/>
-    </row>
-    <row r="53" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q52" s="31"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
+      <c r="T52" s="13"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>41704</v>
       </c>
@@ -22616,15 +22585,15 @@
         <f t="shared" si="8"/>
         <v>4.4042130160960369E-2</v>
       </c>
-      <c r="AD53" s="31"/>
-      <c r="AE53" s="13"/>
-      <c r="AF53" s="13"/>
-      <c r="AG53" s="13"/>
-      <c r="AH53" s="13"/>
-      <c r="AI53" s="13"/>
-      <c r="AJ53" s="13"/>
-    </row>
-    <row r="54" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q53" s="31"/>
+      <c r="R53" s="13"/>
+      <c r="S53" s="13"/>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>41705</v>
       </c>
@@ -22674,15 +22643,15 @@
         <f t="shared" si="8"/>
         <v>8.5477382817771286E-2</v>
       </c>
-      <c r="AD54" s="31"/>
-      <c r="AE54" s="13"/>
-      <c r="AF54" s="13"/>
-      <c r="AG54" s="13"/>
-      <c r="AH54" s="13"/>
-      <c r="AI54" s="13"/>
-      <c r="AJ54" s="13"/>
-    </row>
-    <row r="55" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q54" s="31"/>
+      <c r="R54" s="13"/>
+      <c r="S54" s="13"/>
+      <c r="T54" s="13"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>41708</v>
       </c>
@@ -22732,15 +22701,15 @@
         <f t="shared" si="8"/>
         <v>5.4874488705536351E-4</v>
       </c>
-      <c r="AD55" s="31"/>
-      <c r="AE55" s="13"/>
-      <c r="AF55" s="13"/>
-      <c r="AG55" s="13"/>
-      <c r="AH55" s="13"/>
-      <c r="AI55" s="13"/>
-      <c r="AJ55" s="13"/>
-    </row>
-    <row r="56" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q55" s="31"/>
+      <c r="R55" s="13"/>
+      <c r="S55" s="13"/>
+      <c r="T55" s="13"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>41709</v>
       </c>
@@ -22790,15 +22759,15 @@
         <f t="shared" si="8"/>
         <v>2.5140560428553727E-2</v>
       </c>
-      <c r="AD56" s="31"/>
-      <c r="AE56" s="13"/>
-      <c r="AF56" s="13"/>
-      <c r="AG56" s="13"/>
-      <c r="AH56" s="13"/>
-      <c r="AI56" s="13"/>
-      <c r="AJ56" s="13"/>
-    </row>
-    <row r="57" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q56" s="31"/>
+      <c r="R56" s="13"/>
+      <c r="S56" s="13"/>
+      <c r="T56" s="13"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>41710</v>
       </c>
@@ -22848,15 +22817,15 @@
         <f t="shared" si="8"/>
         <v>3.4573338271002285E-3</v>
       </c>
-      <c r="AD57" s="31"/>
-      <c r="AE57" s="13"/>
-      <c r="AF57" s="13"/>
-      <c r="AG57" s="13"/>
-      <c r="AH57" s="13"/>
-      <c r="AI57" s="13"/>
-      <c r="AJ57" s="13"/>
-    </row>
-    <row r="58" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q57" s="31"/>
+      <c r="R57" s="13"/>
+      <c r="S57" s="13"/>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>41711</v>
       </c>
@@ -22906,15 +22875,15 @@
         <f t="shared" si="8"/>
         <v>7.1584459226869512E-2</v>
       </c>
-      <c r="AD58" s="31"/>
-      <c r="AE58" s="13"/>
-      <c r="AF58" s="13"/>
-      <c r="AG58" s="13"/>
-      <c r="AH58" s="13"/>
-      <c r="AI58" s="13"/>
-      <c r="AJ58" s="13"/>
-    </row>
-    <row r="59" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q58" s="31"/>
+      <c r="R58" s="13"/>
+      <c r="S58" s="13"/>
+      <c r="T58" s="13"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>41712</v>
       </c>
@@ -22964,15 +22933,15 @@
         <f t="shared" si="8"/>
         <v>4.1362249066878576E-2</v>
       </c>
-      <c r="AD59" s="31"/>
-      <c r="AE59" s="13"/>
-      <c r="AF59" s="13"/>
-      <c r="AG59" s="13"/>
-      <c r="AH59" s="13"/>
-      <c r="AI59" s="13"/>
-      <c r="AJ59" s="13"/>
-    </row>
-    <row r="60" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q59" s="31"/>
+      <c r="R59" s="13"/>
+      <c r="S59" s="13"/>
+      <c r="T59" s="13"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>41715</v>
       </c>
@@ -23022,15 +22991,15 @@
         <f t="shared" si="8"/>
         <v>1.4219585878890939E-2</v>
       </c>
-      <c r="AD60" s="31"/>
-      <c r="AE60" s="13"/>
-      <c r="AF60" s="13"/>
-      <c r="AG60" s="13"/>
-      <c r="AH60" s="13"/>
-      <c r="AI60" s="13"/>
-      <c r="AJ60" s="13"/>
-    </row>
-    <row r="61" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q60" s="31"/>
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>41716</v>
       </c>
@@ -23080,15 +23049,15 @@
         <f t="shared" si="8"/>
         <v>0.11085930801345967</v>
       </c>
-      <c r="AD61" s="31"/>
-      <c r="AE61" s="13"/>
-      <c r="AF61" s="13"/>
-      <c r="AG61" s="13"/>
-      <c r="AH61" s="13"/>
-      <c r="AI61" s="13"/>
-      <c r="AJ61" s="13"/>
-    </row>
-    <row r="62" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q61" s="31"/>
+      <c r="R61" s="13"/>
+      <c r="S61" s="13"/>
+      <c r="T61" s="13"/>
+      <c r="U61" s="13"/>
+      <c r="V61" s="13"/>
+      <c r="W61" s="13"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>41717</v>
       </c>
@@ -23138,15 +23107,15 @@
         <f t="shared" si="8"/>
         <v>0.12033522284036735</v>
       </c>
-      <c r="AD62" s="31"/>
-      <c r="AE62" s="13"/>
-      <c r="AF62" s="13"/>
-      <c r="AG62" s="13"/>
-      <c r="AH62" s="13"/>
-      <c r="AI62" s="13"/>
-      <c r="AJ62" s="13"/>
-    </row>
-    <row r="63" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q62" s="31"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>41718</v>
       </c>
@@ -23196,15 +23165,15 @@
         <f t="shared" si="8"/>
         <v>9.9993474628718104E-2</v>
       </c>
-      <c r="AD63" s="31"/>
-      <c r="AE63" s="13"/>
-      <c r="AF63" s="13"/>
-      <c r="AG63" s="13"/>
-      <c r="AH63" s="13"/>
-      <c r="AI63" s="13"/>
-      <c r="AJ63" s="13"/>
-    </row>
-    <row r="64" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="Q63" s="31"/>
+      <c r="R63" s="13"/>
+      <c r="S63" s="13"/>
+      <c r="T63" s="13"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>41719</v>
       </c>
@@ -23254,13 +23223,13 @@
         <f t="shared" si="8"/>
         <v>0.11822806797135854</v>
       </c>
-      <c r="AD64" s="31"/>
-      <c r="AE64" s="13"/>
-      <c r="AF64" s="13"/>
-      <c r="AG64" s="13"/>
-      <c r="AH64" s="13"/>
-      <c r="AI64" s="13"/>
-      <c r="AJ64" s="13"/>
+      <c r="Q64" s="31"/>
+      <c r="R64" s="13"/>
+      <c r="S64" s="13"/>
+      <c r="T64" s="13"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B65" s="13"/>
@@ -23271,11 +23240,10 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <colBreaks count="4" manualBreakCount="4">
+  <colBreaks count="3" manualBreakCount="3">
     <brk id="8" max="63" man="1"/>
-    <brk id="15" max="1048575" man="1"/>
-    <brk id="29" max="1048575" man="1"/>
-    <brk id="37" max="1048575" man="1"/>
+    <brk id="16" max="1048575" man="1"/>
+    <brk id="24" max="1048575" man="1"/>
   </colBreaks>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -23288,13 +23256,13 @@
               <controlPr defaultSize="0" autoPict="0">
                 <anchor moveWithCells="1" sizeWithCells="1">
                   <from>
-                    <xdr:col>38</xdr:col>
+                    <xdr:col>25</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>6</xdr:row>
                     <xdr:rowOff>19050</xdr:rowOff>
                   </from>
                   <to>
-                    <xdr:col>39</xdr:col>
+                    <xdr:col>26</xdr:col>
                     <xdr:colOff>438150</xdr:colOff>
                     <xdr:row>11</xdr:row>
                     <xdr:rowOff>12700</xdr:rowOff>
